--- a/Control de Horas/semanales/Horas_Dedicacion_Semanales.xlsx
+++ b/Control de Horas/semanales/Horas_Dedicacion_Semanales.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171026" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Iván</t>
   </si>
@@ -82,13 +82,34 @@
   </si>
   <si>
     <t>3h (revision y modificación plan gest.proyecto)</t>
+  </si>
+  <si>
+    <t>3h (guía de instalación, comunicación con otros grupos)</t>
+  </si>
+  <si>
+    <t>8h(reunion, diagramas, readme, modulo html detalles, método get de detalles, funcionalidad de busquedas)</t>
+  </si>
+  <si>
+    <t>1h(Documentación)</t>
+  </si>
+  <si>
+    <t>1'5h(organización reuniones, documentacion)</t>
+  </si>
+  <si>
+    <t>2h (reunión, feedback guía de instalación)</t>
+  </si>
+  <si>
+    <t>6h(reunión,implementación web y BBDD)</t>
+  </si>
+  <si>
+    <t>2h(documentacion)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,21 +421,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36.28515625" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="3" max="3" width="46" customWidth="1"/>
+    <col min="4" max="4" width="51.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
         <v>42813</v>
       </c>
@@ -449,7 +470,7 @@
         <v>42883</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -459,8 +480,11 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="14.45">
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -474,7 +498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -484,8 +508,11 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -495,8 +522,11 @@
       <c r="C5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -506,8 +536,11 @@
       <c r="C6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -517,8 +550,11 @@
       <c r="C7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -528,8 +564,11 @@
       <c r="C8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -539,8 +578,11 @@
       <c r="C9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -549,6 +591,9 @@
       </c>
       <c r="C10" t="s">
         <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Control de Horas/semanales/Horas_Dedicacion_Semanales.xlsx
+++ b/Control de Horas/semanales/Horas_Dedicacion_Semanales.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>Iván</t>
   </si>
@@ -33,6 +33,9 @@
     <t>2h (reunión de grupo para organización)</t>
   </si>
   <si>
+    <t>1'5h(organización reuniones, documentacion)</t>
+  </si>
+  <si>
     <t>Marta</t>
   </si>
   <si>
@@ -42,30 +45,45 @@
     <t>4'5h(reunion, organización/Trello, acta,documentación)</t>
   </si>
   <si>
+    <t>2h(maquetación y documentación)</t>
+  </si>
+  <si>
     <t>Alfonso</t>
   </si>
   <si>
     <t>4h (reunion+creación, comunicación con otros grupos, revision y modificación plan gest.proyecto)</t>
   </si>
   <si>
+    <t>6h(reunión,implementación web y BBDD)</t>
+  </si>
+  <si>
     <t>Sandra</t>
   </si>
   <si>
     <t>3'5h (reunion+creación, revision y modificación plan gest.proyecto, redacción acta)</t>
   </si>
   <si>
+    <t>2h(documentacion)</t>
+  </si>
+  <si>
     <t>Dariel</t>
   </si>
   <si>
     <t>10h(reunion,  modificación plan gest.proyecto, todolist,maquetado, progrmación del index(lista), progrmación registro/login y gestión de sesión, )</t>
   </si>
   <si>
+    <t>8h(reunion, diagramas, readme, modulo html detalles, método get de detalles, funcionalidad de busquedas)</t>
+  </si>
+  <si>
     <t>Leon</t>
   </si>
   <si>
     <t>4h (reunion+creación,revision y modificación plan gest.proyecto)</t>
   </si>
   <si>
+    <t>3h (guía de instalación, comunicación con otros grupos)</t>
+  </si>
+  <si>
     <t>Alberto</t>
   </si>
   <si>
@@ -78,31 +96,34 @@
     <t>3h (reunion+revision y modificación plan gest.proyecto</t>
   </si>
   <si>
+    <t>1h(Documentación)</t>
+  </si>
+  <si>
     <t>Bea</t>
   </si>
   <si>
     <t>3h (revision y modificación plan gest.proyecto)</t>
   </si>
   <si>
-    <t>3h (guía de instalación, comunicación con otros grupos)</t>
-  </si>
-  <si>
-    <t>8h(reunion, diagramas, readme, modulo html detalles, método get de detalles, funcionalidad de busquedas)</t>
-  </si>
-  <si>
-    <t>1h(Documentación)</t>
-  </si>
-  <si>
-    <t>1'5h(organización reuniones, documentacion)</t>
-  </si>
-  <si>
     <t>2h (reunión, feedback guía de instalación)</t>
   </si>
   <si>
-    <t>6h(reunión,implementación web y BBDD)</t>
-  </si>
-  <si>
-    <t>2h(documentacion)</t>
+    <t>4h(Implementación, poblado de BBDD y pruebas)</t>
+  </si>
+  <si>
+    <t>2h(reuniones, documentacion)</t>
+  </si>
+  <si>
+    <t>2'5h(reuniones, actas y documentación)</t>
+  </si>
+  <si>
+    <t>2h(reunion y documentacion)</t>
+  </si>
+  <si>
+    <t>6h(reunion,funcionalidades de análisis, comentarios, bug fix y pruebas)</t>
+  </si>
+  <si>
+    <t>3h(reunion y documentacion)</t>
   </si>
 </sst>
 </file>
@@ -424,18 +445,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="45.7109375" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
-    <col min="4" max="4" width="51.42578125" customWidth="1"/>
+    <col min="4" max="4" width="97.7109375" customWidth="1"/>
+    <col min="5" max="5" width="56.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>42813</v>
       </c>
@@ -481,124 +503,151 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Control de Horas/semanales/Horas_Dedicacion_Semanales.xlsx
+++ b/Control de Horas/semanales/Horas_Dedicacion_Semanales.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="10452"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>Iván</t>
   </si>
@@ -36,6 +36,12 @@
     <t>1'5h(organización reuniones, documentacion)</t>
   </si>
   <si>
+    <t>2'5h(reuniones, actas y documentación)</t>
+  </si>
+  <si>
+    <t>5h revisión guia instalación+población final BBDD</t>
+  </si>
+  <si>
     <t>Marta</t>
   </si>
   <si>
@@ -48,6 +54,9 @@
     <t>2h(maquetación y documentación)</t>
   </si>
   <si>
+    <t>1h documentacion</t>
+  </si>
+  <si>
     <t>Alfonso</t>
   </si>
   <si>
@@ -57,6 +66,12 @@
     <t>6h(reunión,implementación web y BBDD)</t>
   </si>
   <si>
+    <t>4h(Implementación, poblado de BBDD y pruebas)</t>
+  </si>
+  <si>
+    <t>4h poblacion final BBDD</t>
+  </si>
+  <si>
     <t>Sandra</t>
   </si>
   <si>
@@ -66,6 +81,9 @@
     <t>2h(documentacion)</t>
   </si>
   <si>
+    <t>2h(reuniones, documentacion)</t>
+  </si>
+  <si>
     <t>Dariel</t>
   </si>
   <si>
@@ -75,6 +93,9 @@
     <t>8h(reunion, diagramas, readme, modulo html detalles, método get de detalles, funcionalidad de busquedas)</t>
   </si>
   <si>
+    <t>6h(reunion,funcionalidades de análisis, comentarios, bug fix y pruebas)</t>
+  </si>
+  <si>
     <t>Leon</t>
   </si>
   <si>
@@ -84,6 +105,9 @@
     <t>3h (guía de instalación, comunicación con otros grupos)</t>
   </si>
   <si>
+    <t>3h(reunion y documentacion)</t>
+  </si>
+  <si>
     <t>Alberto</t>
   </si>
   <si>
@@ -99,6 +123,12 @@
     <t>1h(Documentación)</t>
   </si>
   <si>
+    <t>2h(reunion y documentacion)</t>
+  </si>
+  <si>
+    <t>1,5 Scripts de instalacion</t>
+  </si>
+  <si>
     <t>Bea</t>
   </si>
   <si>
@@ -108,30 +138,26 @@
     <t>2h (reunión, feedback guía de instalación)</t>
   </si>
   <si>
-    <t>4h(Implementación, poblado de BBDD y pruebas)</t>
-  </si>
-  <si>
-    <t>2h(reuniones, documentacion)</t>
-  </si>
-  <si>
-    <t>2'5h(reuniones, actas y documentación)</t>
-  </si>
-  <si>
-    <t>2h(reunion y documentacion)</t>
-  </si>
-  <si>
-    <t>6h(reunion,funcionalidades de análisis, comentarios, bug fix y pruebas)</t>
-  </si>
-  <si>
-    <t>3h(reunion y documentacion)</t>
+    <t>1,15h documentación,reuniónes</t>
+  </si>
+  <si>
+    <t>5h temas,calificaciones, modulo y routers perfil privado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -159,10 +185,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,19 +472,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
-    <col min="4" max="4" width="97.7109375" customWidth="1"/>
-    <col min="5" max="5" width="56.28515625" customWidth="1"/>
+    <col min="4" max="4" width="97.6640625" customWidth="1"/>
+    <col min="5" max="5" width="56.33203125" customWidth="1"/>
+    <col min="7" max="7" width="49.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>42813</v>
       </c>
@@ -492,7 +520,7 @@
         <v>42883</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -506,100 +534,119 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B8" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -610,44 +657,53 @@
       <c r="E8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Control de Horas/semanales/Horas_Dedicacion_Semanales.xlsx
+++ b/Control de Horas/semanales/Horas_Dedicacion_Semanales.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="10452"/>
+    <workbookView xWindow="3660" yWindow="90" windowWidth="29670" windowHeight="16050"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,132 +22,165 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>Iván</t>
   </si>
   <si>
-    <t>4h (reunion+creación, revision y modificación plan gest.proyecto)</t>
-  </si>
-  <si>
-    <t>2h (reunión de grupo para organización)</t>
-  </si>
-  <si>
-    <t>1'5h(organización reuniones, documentacion)</t>
-  </si>
-  <si>
-    <t>2'5h(reuniones, actas y documentación)</t>
-  </si>
-  <si>
-    <t>5h revisión guia instalación+población final BBDD</t>
+    <t>2 h implementación BBDD</t>
   </si>
   <si>
     <t>Marta</t>
   </si>
   <si>
-    <t>6h(informe prototipo+creacion,modificacion,maquetacion informe plan de gestion</t>
-  </si>
-  <si>
-    <t>4'5h(reunion, organización/Trello, acta,documentación)</t>
-  </si>
-  <si>
     <t>2h(maquetación y documentación)</t>
   </si>
   <si>
     <t>1h documentacion</t>
   </si>
   <si>
+    <t>1h reunión</t>
+  </si>
+  <si>
+    <t>1h retoque web, 1h repaso de estado y org. 5h documentación</t>
+  </si>
+  <si>
     <t>Alfonso</t>
   </si>
   <si>
-    <t>4h (reunion+creación, comunicación con otros grupos, revision y modificación plan gest.proyecto)</t>
-  </si>
-  <si>
-    <t>6h(reunión,implementación web y BBDD)</t>
-  </si>
-  <si>
-    <t>4h(Implementación, poblado de BBDD y pruebas)</t>
-  </si>
-  <si>
     <t>4h poblacion final BBDD</t>
   </si>
   <si>
     <t>Sandra</t>
   </si>
   <si>
-    <t>3'5h (reunion+creación, revision y modificación plan gest.proyecto, redacción acta)</t>
-  </si>
-  <si>
-    <t>2h(documentacion)</t>
-  </si>
-  <si>
-    <t>2h(reuniones, documentacion)</t>
-  </si>
-  <si>
     <t>Dariel</t>
   </si>
   <si>
-    <t>10h(reunion,  modificación plan gest.proyecto, todolist,maquetado, progrmación del index(lista), progrmación registro/login y gestión de sesión, )</t>
-  </si>
-  <si>
-    <t>8h(reunion, diagramas, readme, modulo html detalles, método get de detalles, funcionalidad de busquedas)</t>
-  </si>
-  <si>
-    <t>6h(reunion,funcionalidades de análisis, comentarios, bug fix y pruebas)</t>
-  </si>
-  <si>
     <t>Leon</t>
   </si>
   <si>
-    <t>4h (reunion+creación,revision y modificación plan gest.proyecto)</t>
-  </si>
-  <si>
-    <t>3h (guía de instalación, comunicación con otros grupos)</t>
-  </si>
-  <si>
-    <t>3h(reunion y documentacion)</t>
-  </si>
-  <si>
     <t>Alberto</t>
   </si>
   <si>
-    <t>4h(reunión+creación,revisión y modificación plan gest.proyecto)</t>
-  </si>
-  <si>
     <t>M.Angel</t>
   </si>
   <si>
-    <t>3h (reunion+revision y modificación plan gest.proyecto</t>
-  </si>
-  <si>
-    <t>1h(Documentación)</t>
-  </si>
-  <si>
-    <t>2h(reunion y documentacion)</t>
-  </si>
-  <si>
     <t>1,5 Scripts de instalacion</t>
   </si>
   <si>
     <t>Bea</t>
   </si>
   <si>
-    <t>3h (revision y modificación plan gest.proyecto)</t>
-  </si>
-  <si>
-    <t>2h (reunión, feedback guía de instalación)</t>
-  </si>
-  <si>
-    <t>1,15h documentación,reuniónes</t>
-  </si>
-  <si>
-    <t>5h temas,calificaciones, modulo y routers perfil privado</t>
+    <t>0h</t>
+  </si>
+  <si>
+    <t>7h(2h funcionalidad jugado/deseado, 2.5 h búsquedas de usuario y revisión de módulos, 2.5h listas)</t>
+  </si>
+  <si>
+    <t>0,5h(manual de usuario)</t>
+  </si>
+  <si>
+    <t>2 h población final BBDD</t>
+  </si>
+  <si>
+    <t>3h finalizar perfil publico y privado</t>
+  </si>
+  <si>
+    <t>1h reunion. 2hcreación de PGP, 1h revision y modificación  de PGP</t>
+  </si>
+  <si>
+    <t>2h reunión de grupo interna</t>
+  </si>
+  <si>
+    <t>30min organización reuniones, 1h documentacion</t>
+  </si>
+  <si>
+    <t>1,5 reuniones, 20min actas y 40min documentación</t>
+  </si>
+  <si>
+    <t>2,5h revisión guia instalación, 2,5h población final BBDD</t>
+  </si>
+  <si>
+    <t>2h informe prototipo, 2hcreacion  de PGP, 2h modificacion,maquetacion  de PGP</t>
+  </si>
+  <si>
+    <t>1h reunion, 1,5 organización/Trello, 30min acta, 1,5 documentación</t>
+  </si>
+  <si>
+    <t>1h reunion, 2h creación  de PGP, 30min revision y modificación  de PGP, 30min comunicación con otros grupos</t>
+  </si>
+  <si>
+    <t>1h reunión, 3h implementación web y 2h BBDD</t>
+  </si>
+  <si>
+    <t>2h Implementación, 1h poblado de BBDD y 1h pruebas</t>
+  </si>
+  <si>
+    <t>1h reunion, 1,5h creación de PGP, 40min revision y modificación de PGP, 20 min redacción acta</t>
+  </si>
+  <si>
+    <t>2h documentacion</t>
+  </si>
+  <si>
+    <t>1,5 reuniones,30 min documentacion</t>
+  </si>
+  <si>
+    <t>1h reunion,  30min modificación de PGP, 30min todolist, 1h maquetado, 2h progrmación del index(lista),  3h progrmación registro/login y 2h gestión de sesión</t>
+  </si>
+  <si>
+    <t>1h reunion, 30min diagramas, 30min readme, 1h modulo html detalles, 3h método get de detalles, 2h funcionalidad de busquedas</t>
+  </si>
+  <si>
+    <t>1h reunion, 3h funcionalidades de análisis, 1h comentarios, 1h bug fix y pruebas</t>
+  </si>
+  <si>
+    <t>1h temas, 1,5h calificaciones, 1,5h modulo y 1h routers perfil privado</t>
+  </si>
+  <si>
+    <t>1h reunion, 1h eliminar perfil, 1h bug fix y pruebas</t>
+  </si>
+  <si>
+    <t>1h reunion, 2h creación de PGP, 1hrevision y modificación de PGP</t>
+  </si>
+  <si>
+    <t>2h guía de instalación, 1h comunicación con otros grupos</t>
+  </si>
+  <si>
+    <t>1h reunion y 2h documentacion</t>
+  </si>
+  <si>
+    <t>30 min organización reuniones, 1h documentacion</t>
+  </si>
+  <si>
+    <t>1,15h documentación</t>
+  </si>
+  <si>
+    <t>1h Reunión, 30min documentación</t>
+  </si>
+  <si>
+    <t>1h reunion, 2h revision y modificación de PGP</t>
+  </si>
+  <si>
+    <t>1h Documentación</t>
+  </si>
+  <si>
+    <t>1h reunion y 1h documentacion</t>
+  </si>
+  <si>
+    <t>1h reunion, 2h Perfil publico</t>
+  </si>
+  <si>
+    <t>3h revision y modificación de PGP</t>
+  </si>
+  <si>
+    <t>1h reunión, 1h feedback guía de instalación</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -472,20 +505,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
-    <col min="4" max="4" width="97.6640625" customWidth="1"/>
-    <col min="5" max="5" width="56.33203125" customWidth="1"/>
-    <col min="7" max="7" width="49.44140625" customWidth="1"/>
+    <col min="4" max="4" width="97.7109375" customWidth="1"/>
+    <col min="5" max="5" width="56.28515625" customWidth="1"/>
+    <col min="7" max="7" width="49.42578125" customWidth="1"/>
+    <col min="8" max="8" width="39.42578125" customWidth="1"/>
+    <col min="9" max="9" width="58.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>42813</v>
       </c>
@@ -520,190 +555,244 @@
         <v>42883</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="I3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" t="s">
         <v>14</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="I10" t="s">
         <v>4</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
